--- a/stock_predictor_ai/data/cleaned/APO.xlsx
+++ b/stock_predictor_ai/data/cleaned/APO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3585"/>
+  <dimension ref="A1:F3586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72149,6 +72149,26 @@
         <v>243512</v>
       </c>
     </row>
+    <row r="3586">
+      <c r="A3586" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3586" t="n">
+        <v>146.7400054931641</v>
+      </c>
+      <c r="C3586" t="n">
+        <v>147.1999969482422</v>
+      </c>
+      <c r="D3586" t="n">
+        <v>145.7799987792969</v>
+      </c>
+      <c r="E3586" t="n">
+        <v>146.25</v>
+      </c>
+      <c r="F3586" t="n">
+        <v>182874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/APO.xlsx
+++ b/stock_predictor_ai/data/cleaned/APO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3586"/>
+  <dimension ref="A1:F3587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72169,6 +72169,26 @@
         <v>182874</v>
       </c>
     </row>
+    <row r="3587">
+      <c r="A3587" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3587" t="n">
+        <v>145.7200012207031</v>
+      </c>
+      <c r="C3587" t="n">
+        <v>149.1000061035156</v>
+      </c>
+      <c r="D3587" t="n">
+        <v>145.3999938964844</v>
+      </c>
+      <c r="E3587" t="n">
+        <v>148.3899993896484</v>
+      </c>
+      <c r="F3587" t="n">
+        <v>1605900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/APO.xlsx
+++ b/stock_predictor_ai/data/cleaned/APO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3587"/>
+  <dimension ref="A1:F3588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72189,6 +72189,26 @@
         <v>1605900</v>
       </c>
     </row>
+    <row r="3588">
+      <c r="A3588" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3588" t="n">
+        <v>151.0399932861328</v>
+      </c>
+      <c r="C3588" t="n">
+        <v>152.9499969482422</v>
+      </c>
+      <c r="D3588" t="n">
+        <v>150.4499969482422</v>
+      </c>
+      <c r="E3588" t="n">
+        <v>152.6600036621094</v>
+      </c>
+      <c r="F3588" t="n">
+        <v>332005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/APO.xlsx
+++ b/stock_predictor_ai/data/cleaned/APO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3588"/>
+  <dimension ref="A1:F3589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72209,6 +72209,26 @@
         <v>332005</v>
       </c>
     </row>
+    <row r="3589">
+      <c r="A3589" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3589" t="n">
+        <v>134.6600036621094</v>
+      </c>
+      <c r="C3589" t="n">
+        <v>135.3670043945312</v>
+      </c>
+      <c r="D3589" t="n">
+        <v>132.2799987792969</v>
+      </c>
+      <c r="E3589" t="n">
+        <v>134.3500061035156</v>
+      </c>
+      <c r="F3589" t="n">
+        <v>1785288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/APO.xlsx
+++ b/stock_predictor_ai/data/cleaned/APO.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3589"/>
+  <dimension ref="A1:F3584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72129,106 +72131,6 @@
         <v>8391400</v>
       </c>
     </row>
-    <row r="3585">
-      <c r="A3585" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3585" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="C3585" t="n">
-        <v>145.3600006103516</v>
-      </c>
-      <c r="D3585" t="n">
-        <v>142.5800018310547</v>
-      </c>
-      <c r="E3585" t="n">
-        <v>143.1000061035156</v>
-      </c>
-      <c r="F3585" t="n">
-        <v>243512</v>
-      </c>
-    </row>
-    <row r="3586">
-      <c r="A3586" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3586" t="n">
-        <v>146.7400054931641</v>
-      </c>
-      <c r="C3586" t="n">
-        <v>147.1999969482422</v>
-      </c>
-      <c r="D3586" t="n">
-        <v>145.7799987792969</v>
-      </c>
-      <c r="E3586" t="n">
-        <v>146.25</v>
-      </c>
-      <c r="F3586" t="n">
-        <v>182874</v>
-      </c>
-    </row>
-    <row r="3587">
-      <c r="A3587" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3587" t="n">
-        <v>145.7200012207031</v>
-      </c>
-      <c r="C3587" t="n">
-        <v>149.1000061035156</v>
-      </c>
-      <c r="D3587" t="n">
-        <v>145.3999938964844</v>
-      </c>
-      <c r="E3587" t="n">
-        <v>148.3899993896484</v>
-      </c>
-      <c r="F3587" t="n">
-        <v>1605900</v>
-      </c>
-    </row>
-    <row r="3588">
-      <c r="A3588" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3588" t="n">
-        <v>151.0399932861328</v>
-      </c>
-      <c r="C3588" t="n">
-        <v>152.9499969482422</v>
-      </c>
-      <c r="D3588" t="n">
-        <v>150.4499969482422</v>
-      </c>
-      <c r="E3588" t="n">
-        <v>152.6600036621094</v>
-      </c>
-      <c r="F3588" t="n">
-        <v>332005</v>
-      </c>
-    </row>
-    <row r="3589">
-      <c r="A3589" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3589" t="n">
-        <v>134.6600036621094</v>
-      </c>
-      <c r="C3589" t="n">
-        <v>135.3670043945312</v>
-      </c>
-      <c r="D3589" t="n">
-        <v>132.2799987792969</v>
-      </c>
-      <c r="E3589" t="n">
-        <v>134.3500061035156</v>
-      </c>
-      <c r="F3589" t="n">
-        <v>1785288</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
